--- a/ANT.xlsx
+++ b/ANT.xlsx
@@ -345,6 +345,7 @@
         <family val="2"/>
         <color rgb="FF000000"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -353,11 +354,7 @@
         <family val="2"/>
         <color rgb="FF000000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -366,11 +363,7 @@
         <family val="2"/>
         <color rgb="FF000000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -443,21 +436,21 @@
   </sheetPr>
   <dimension ref="A1:BP65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G46" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q61" activeCellId="0" sqref="Q61"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.2793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="11.2105263157895"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.71255060728745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8542510121458"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.71255060728745"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="8.71255060728745"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -484,11 +477,11 @@
       </c>
       <c r="I1" s="0" t="n">
         <f aca="false">SUMPRODUCT($G3:$G37,I3:I37)/SUM($G3:$G37)</f>
-        <v>2.55</v>
+        <v>2.51</v>
       </c>
       <c r="J1" s="0" t="n">
         <f aca="false">SUMPRODUCT($G3:$G37,J3:J37)/SUM($G3:$G37)</f>
-        <v>4.45</v>
+        <v>4.41</v>
       </c>
       <c r="K1" s="0" t="n">
         <f aca="false">SUMPRODUCT($G3:$G37,K3:K37)/SUM($G3:$G37)</f>
@@ -547,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>4</v>
@@ -678,13 +671,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>10</v>
@@ -699,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="0" t="n">
         <f aca="false">J41</f>
@@ -798,7 +791,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>16</v>
@@ -874,7 +867,7 @@
       </c>
       <c r="J7" s="0" t="n">
         <f aca="false">J44</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>1</v>
@@ -1026,7 +1019,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>28</v>
@@ -1077,7 +1070,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>30</v>
@@ -1639,7 +1632,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
         <v>46</v>
       </c>
@@ -1684,7 +1682,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
         <v>47</v>
       </c>
@@ -1729,7 +1732,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
         <v>48</v>
       </c>
@@ -2622,7 +2630,7 @@
         <v>4</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>1</v>
@@ -2748,7 +2756,7 @@
         <v>6</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>6</v>
@@ -2797,7 +2805,7 @@
         <v>6</v>
       </c>
       <c r="M45" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N45" s="0" t="n">
         <v>6</v>
@@ -2809,7 +2817,7 @@
         <v>6</v>
       </c>
       <c r="Q45" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2837,7 +2845,7 @@
         <v>6</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" s="0" t="n">
         <v>6</v>
@@ -2849,7 +2857,7 @@
         <v>6</v>
       </c>
       <c r="Q46" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3000,7 +3008,7 @@
         <v>4</v>
       </c>
       <c r="N50" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O50" s="0" t="n">
         <v>1</v>
@@ -3077,19 +3085,19 @@
         <v>6</v>
       </c>
       <c r="M52" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O52" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P52" s="5" t="n">
         <v>6</v>
       </c>
       <c r="Q52" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/ANT.xlsx
+++ b/ANT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="997" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Storm" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t xml:space="preserve">Main Copies</t>
   </si>
@@ -121,6 +121,9 @@
     <t xml:space="preserve">Grixis Control</t>
   </si>
   <si>
+    <t xml:space="preserve">Cabal Therapy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fatal Push</t>
   </si>
   <si>
@@ -133,10 +136,16 @@
     <t xml:space="preserve">UB Reanimator</t>
   </si>
   <si>
+    <t xml:space="preserve">Ground Seal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Infect</t>
   </si>
   <si>
-    <t xml:space="preserve">D&amp;T/Maverick</t>
+    <t xml:space="preserve">D&amp;T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maverick</t>
   </si>
   <si>
     <t xml:space="preserve">Aggro Loam</t>
@@ -345,7 +354,6 @@
         <family val="2"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -354,7 +362,6 @@
         <family val="2"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -363,69 +370,8 @@
         <family val="2"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF99FF99"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF9999"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -434,23 +380,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BP65536"/>
+  <dimension ref="A1:BP77"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="O65" activeCellId="0" sqref="O65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.71255060728745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8542510121458"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.71255060728745"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.3522267206478"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="8.71255060728745"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.06882591093117"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.06882591093117"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="9.06882591093117"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.0202429149798"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.06882591093117"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -461,7 +407,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="n">
-        <f aca="false">SUM(C2:C16)</f>
+        <f aca="false">SUM(C2:C17)</f>
         <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -472,63 +418,63 @@
       </c>
       <c r="G1" s="0"/>
       <c r="H1" s="0" t="n">
-        <f aca="false">SUMPRODUCT($G3:$G37,H3:H37)/SUM($G3:$G37)</f>
+        <f aca="false">SUMPRODUCT($G3:$G38,H3:H38)/SUM($G3:$G38)</f>
         <v>3.49</v>
       </c>
       <c r="I1" s="0" t="n">
-        <f aca="false">SUMPRODUCT($G3:$G37,I3:I37)/SUM($G3:$G37)</f>
-        <v>2.51</v>
+        <f aca="false">SUMPRODUCT($G3:$G38,I3:I38)/SUM($G3:$G38)</f>
+        <v>3.04</v>
       </c>
       <c r="J1" s="0" t="n">
-        <f aca="false">SUMPRODUCT($G3:$G37,J3:J37)/SUM($G3:$G37)</f>
-        <v>4.41</v>
+        <f aca="false">SUMPRODUCT($G3:$G38,J3:J38)/SUM($G3:$G38)</f>
+        <v>4.76</v>
       </c>
       <c r="K1" s="0" t="n">
-        <f aca="false">SUMPRODUCT($G3:$G37,K3:K37)/SUM($G3:$G37)</f>
+        <f aca="false">SUMPRODUCT($G3:$G38,K3:K38)/SUM($G3:$G38)</f>
         <v>3.42</v>
       </c>
       <c r="L1" s="0" t="n">
-        <f aca="false">SUMPRODUCT($G3:$G37,L3:L37)/SUM($G3:$G37)</f>
+        <f aca="false">SUMPRODUCT($G3:$G38,L3:L38)/SUM($G3:$G38)</f>
         <v>2.63</v>
       </c>
       <c r="M1" s="0" t="n">
-        <f aca="false">SUMPRODUCT($G3:$G37,M3:M37)/SUM($G3:$G37)</f>
+        <f aca="false">SUMPRODUCT($G3:$G38,M3:M38)/SUM($G3:$G38)</f>
         <v>2.84</v>
       </c>
       <c r="N1" s="0" t="n">
-        <f aca="false">SUMPRODUCT($G3:$G37,N3:N37)/SUM($G3:$G37)</f>
-        <v>1.99</v>
+        <f aca="false">SUMPRODUCT($G3:$G38,N3:N38)/SUM($G3:$G38)</f>
+        <v>2.01</v>
       </c>
       <c r="O1" s="0" t="n">
-        <f aca="false">SUMPRODUCT($G3:$G37,O3:O37)/SUM($G3:$G37)</f>
+        <f aca="false">SUMPRODUCT($G3:$G38,O3:O38)/SUM($G3:$G38)</f>
         <v>1.82</v>
       </c>
       <c r="P1" s="0" t="n">
-        <f aca="false">SUMPRODUCT($G3:$G37,P3:P37)/SUM($G3:$G37)</f>
+        <f aca="false">SUMPRODUCT($G3:$G38,P3:P38)/SUM($G3:$G38)</f>
         <v>2.69</v>
       </c>
       <c r="Q1" s="0" t="n">
-        <f aca="false">SUMPRODUCT($G3:$G37,Q3:Q37)/SUM($G3:$G37)</f>
+        <f aca="false">SUMPRODUCT($G3:$G38,Q3:Q38)/SUM($G3:$G38)</f>
         <v>2.18</v>
       </c>
       <c r="R1" s="0" t="n">
-        <f aca="false">SUMPRODUCT($G3:$G37,R3:R37)/SUM($G3:$G37)</f>
+        <f aca="false">SUMPRODUCT($G3:$G38,R3:R38)/SUM($G3:$G38)</f>
         <v>1.95</v>
       </c>
       <c r="S1" s="0" t="n">
-        <f aca="false">SUMPRODUCT($G3:$G37,S3:S37)/SUM($G3:$G37)</f>
+        <f aca="false">SUMPRODUCT($G3:$G38,S3:S38)/SUM($G3:$G38)</f>
         <v>1.91</v>
       </c>
       <c r="T1" s="0" t="n">
-        <f aca="false">SUMPRODUCT($G3:$G37,T3:T37)/SUM($G3:$G37)</f>
-        <v>0</v>
+        <f aca="false">SUMPRODUCT($G3:$G38,T3:T38)/SUM($G3:$G38)</f>
+        <v>1.97</v>
       </c>
       <c r="U1" s="0" t="n">
-        <f aca="false">SUMPRODUCT($G3:$G37,U3:U37)/SUM($G3:$G37)</f>
+        <f aca="false">SUMPRODUCT($G3:$G38,U3:U38)/SUM($G3:$G38)</f>
         <v>0</v>
       </c>
       <c r="V1" s="0" t="n">
-        <f aca="false">SUMPRODUCT($G3:$G37,V3:V37)/SUM($G3:$G37)</f>
+        <f aca="false">SUMPRODUCT($G3:$G38,V3:V38)/SUM($G3:$G38)</f>
         <v>0</v>
       </c>
     </row>
@@ -540,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>4</v>
@@ -599,16 +545,16 @@
         <f aca="false">D13</f>
         <v>Krosan Grip</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="T2" s="1" t="str">
         <f aca="false">D14</f>
-        <v>0</v>
+        <v>Ground Seal</v>
       </c>
       <c r="U2" s="1" t="n">
-        <f aca="false">D15</f>
+        <f aca="false">D16</f>
         <v>0</v>
       </c>
       <c r="V2" s="1" t="n">
-        <f aca="false">D16</f>
+        <f aca="false">D17</f>
         <v>0</v>
       </c>
     </row>
@@ -620,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>8</v>
@@ -638,7 +584,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="0" t="n">
-        <f aca="false">J40</f>
+        <f aca="false">J42</f>
         <v>6</v>
       </c>
       <c r="K3" s="0" t="n">
@@ -666,18 +612,21 @@
         <v>1</v>
       </c>
       <c r="S3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T3" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>10</v>
@@ -695,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="0" t="n">
-        <f aca="false">J41</f>
+        <f aca="false">J43</f>
         <v>6</v>
       </c>
       <c r="K4" s="0" t="n">
@@ -724,6 +673,9 @@
       </c>
       <c r="S4" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -749,10 +701,10 @@
         <v>4</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J5" s="0" t="n">
-        <f aca="false">J42</f>
+        <f aca="false">J44</f>
         <v>3</v>
       </c>
       <c r="K5" s="0" t="n">
@@ -781,6 +733,9 @@
       </c>
       <c r="S5" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -791,7 +746,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>16</v>
@@ -809,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="0" t="n">
-        <f aca="false">J43</f>
+        <f aca="false">J45</f>
         <v>6</v>
       </c>
       <c r="K6" s="0" t="n">
@@ -837,6 +792,9 @@
         <v>1</v>
       </c>
       <c r="S6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -866,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="0" t="n">
-        <f aca="false">J44</f>
+        <f aca="false">J46</f>
         <v>3</v>
       </c>
       <c r="K7" s="0" t="n">
@@ -895,6 +853,9 @@
       </c>
       <c r="S7" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -923,7 +884,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="0" t="n">
-        <f aca="false">J45</f>
+        <f aca="false">J47</f>
         <v>6</v>
       </c>
       <c r="K8" s="0" t="n">
@@ -951,6 +912,9 @@
         <v>1</v>
       </c>
       <c r="S8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -980,7 +944,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="0" t="n">
-        <f aca="false">J46</f>
+        <f aca="false">J48</f>
         <v>6</v>
       </c>
       <c r="K9" s="0" t="n">
@@ -1009,17 +973,20 @@
       </c>
       <c r="S9" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>28</v>
@@ -1037,7 +1004,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="0" t="n">
-        <f aca="false">J47</f>
+        <f aca="false">J49</f>
         <v>6</v>
       </c>
       <c r="K10" s="0" t="n">
@@ -1065,12 +1032,15 @@
         <v>1</v>
       </c>
       <c r="S10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>30</v>
@@ -1094,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="0" t="n">
-        <f aca="false">J48</f>
+        <f aca="false">J50</f>
         <v>6</v>
       </c>
       <c r="K11" s="0" t="n">
@@ -1124,16 +1094,25 @@
       <c r="S11" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="T11" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>33</v>
+      </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>3</v>
@@ -1145,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="0" t="n">
-        <f aca="false">J49</f>
+        <f aca="false">J51</f>
         <v>1</v>
       </c>
       <c r="K12" s="0" t="n">
@@ -1173,6 +1152,9 @@
         <v>5</v>
       </c>
       <c r="S12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1181,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>1</v>
@@ -1196,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="0" t="n">
-        <f aca="false">J50</f>
+        <f aca="false">J52</f>
         <v>6</v>
       </c>
       <c r="K13" s="0" t="n">
@@ -1226,10 +1208,19 @@
       <c r="S13" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="T13" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>38</v>
+      </c>
       <c r="F14" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>3</v>
@@ -1241,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="J14" s="0" t="n">
-        <f aca="false">J51</f>
+        <f aca="false">J53</f>
         <v>6</v>
       </c>
       <c r="K14" s="0" t="n">
@@ -1269,25 +1260,28 @@
         <v>6</v>
       </c>
       <c r="S14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F15" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>6</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" s="0" t="n">
-        <f aca="false">J52</f>
-        <v>1</v>
+        <f aca="false">J53</f>
+        <v>6</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>6</v>
@@ -1316,103 +1310,112 @@
       <c r="S15" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="T15" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I16" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" s="5" t="n">
-        <f aca="false">J53</f>
-        <v>3</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="O16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="5" t="n">
-        <v>1</v>
+      <c r="F16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">J55</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="S16" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="T16" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <f aca="false">J54</f>
-        <v>6</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="R17" s="0" t="n">
+      <c r="F17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <f aca="false">J56</f>
+        <v>3</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="5" t="n">
         <v>1</v>
       </c>
       <c r="S17" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>5</v>
@@ -1421,17 +1424,17 @@
         <v>1</v>
       </c>
       <c r="J18" s="0" t="n">
-        <f aca="false">J55</f>
-        <v>4</v>
+        <f aca="false">J57</f>
+        <v>6</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N18" s="0" t="n">
         <v>1</v>
@@ -1443,40 +1446,43 @@
         <v>1</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T18" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J19" s="0" t="n">
-        <f aca="false">J56</f>
-        <v>6</v>
+        <f aca="false">J58</f>
+        <v>4</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N19" s="0" t="n">
         <v>1</v>
@@ -1488,31 +1494,34 @@
         <v>1</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S19" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="5" t="n">
+      <c r="T19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J20" s="0" t="n">
-        <f aca="false">J57</f>
-        <v>5</v>
+        <f aca="false">J59</f>
+        <v>6</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>1</v>
@@ -1521,7 +1530,7 @@
         <v>6</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N20" s="0" t="n">
         <v>1</v>
@@ -1530,155 +1539,162 @@
         <v>1</v>
       </c>
       <c r="P20" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="S20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <f aca="false">J60</f>
+        <v>5</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="H21" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <f aca="false">J58</f>
-        <v>6</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S21" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H22" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J22" s="0" t="n">
-        <f aca="false">J59</f>
-        <v>5</v>
+        <f aca="false">J61</f>
+        <v>6</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="P22" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R22" s="5" t="n">
         <v>1</v>
       </c>
       <c r="S22" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="T22" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I23" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J23" s="5" t="n">
-        <f aca="false">J60</f>
-        <v>3</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="O23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="5" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <f aca="false">J62</f>
+        <v>5</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="R23" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="S23" s="5" t="n">
+      <c r="S23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T23" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1689,46 +1705,49 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H24" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <f aca="false">J61</f>
-        <v>5</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M24" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="0" t="n">
+      <c r="H24" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <f aca="false">J63</f>
+        <v>3</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="R24" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="S24" s="0" t="n">
+      <c r="S24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1739,26 +1758,26 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J25" s="0" t="n">
-        <f aca="false">J62</f>
-        <v>1</v>
+        <f aca="false">J64</f>
+        <v>5</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M25" s="0" t="n">
         <v>5</v>
@@ -1770,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="P25" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="0" t="n">
         <v>1</v>
@@ -1781,71 +1800,82 @@
       <c r="S25" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="T25" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>4</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" s="0" t="n">
-        <f aca="false">J63</f>
-        <v>3</v>
+        <f aca="false">J65</f>
+        <v>1</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="P26" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="R26" s="5" t="n">
         <v>1</v>
       </c>
       <c r="S26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F27" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J27" s="0" t="n">
-        <f aca="false">J64</f>
+        <f aca="false">J66</f>
         <v>3</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L27" s="0" t="n">
         <v>1</v>
@@ -1854,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>1</v>
@@ -1869,28 +1899,31 @@
         <v>1</v>
       </c>
       <c r="S27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F28" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J28" s="0" t="n">
-        <f aca="false">J65</f>
-        <v>1</v>
+        <f aca="false">J67</f>
+        <v>3</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L28" s="0" t="n">
         <v>1</v>
@@ -1902,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P28" s="0" t="n">
         <v>5</v>
@@ -1914,43 +1947,46 @@
         <v>1</v>
       </c>
       <c r="S28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F29" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J29" s="0" t="n">
-        <f aca="false">J66</f>
-        <v>2</v>
+        <f aca="false">J68</f>
+        <v>1</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P29" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q29" s="0" t="n">
         <v>1</v>
@@ -1959,34 +1995,37 @@
         <v>1</v>
       </c>
       <c r="S29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F30" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J30" s="0" t="n">
-        <f aca="false">J67</f>
-        <v>1</v>
+        <f aca="false">J69</f>
+        <v>2</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N30" s="0" t="n">
         <v>1</v>
@@ -1995,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q30" s="0" t="n">
         <v>1</v>
@@ -2004,12 +2043,15 @@
         <v>1</v>
       </c>
       <c r="S30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F31" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>1</v>
@@ -2018,14 +2060,14 @@
         <v>5</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J31" s="0" t="n">
-        <f aca="false">J68</f>
-        <v>6</v>
+        <f aca="false">J70</f>
+        <v>1</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31" s="0" t="n">
         <v>1</v>
@@ -2034,13 +2076,13 @@
         <v>1</v>
       </c>
       <c r="N31" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="P31" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q31" s="0" t="n">
         <v>1</v>
@@ -2049,57 +2091,63 @@
         <v>1</v>
       </c>
       <c r="S31" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F32" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J32" s="0" t="n">
-        <f aca="false">J69</f>
+        <f aca="false">J71</f>
         <v>6</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N32" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="P32" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q32" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="S32" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T32" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F33" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>1</v>
@@ -2111,14 +2159,14 @@
         <v>1</v>
       </c>
       <c r="J33" s="0" t="n">
-        <f aca="false">J70</f>
+        <f aca="false">J72</f>
         <v>6</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M33" s="0" t="n">
         <v>6</v>
@@ -2130,52 +2178,55 @@
         <v>1</v>
       </c>
       <c r="P33" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="S33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F34" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J34" s="0" t="n">
-        <f aca="false">J71</f>
-        <v>3</v>
+        <f aca="false">J73</f>
+        <v>6</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="P34" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q34" s="0" t="n">
         <v>1</v>
@@ -2184,12 +2235,15 @@
         <v>1</v>
       </c>
       <c r="S34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F35" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>1</v>
@@ -2201,8 +2255,8 @@
         <v>1</v>
       </c>
       <c r="J35" s="0" t="n">
-        <f aca="false">J72</f>
-        <v>4</v>
+        <f aca="false">J74</f>
+        <v>3</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>1</v>
@@ -2214,13 +2268,13 @@
         <v>1</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q35" s="0" t="n">
         <v>1</v>
@@ -2229,28 +2283,31 @@
         <v>1</v>
       </c>
       <c r="S35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F36" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J36" s="0" t="n">
-        <f aca="false">J73</f>
-        <v>6</v>
+        <f aca="false">J75</f>
+        <v>4</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L36" s="0" t="n">
         <v>1</v>
@@ -2262,52 +2319,55 @@
         <v>1</v>
       </c>
       <c r="O36" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P36" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q36" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R36" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F37" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J37" s="0" t="n">
-        <f aca="false">J74</f>
+        <f aca="false">J76</f>
         <v>6</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O37" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P37" s="0" t="n">
         <v>1</v>
@@ -2316,838 +2376,849 @@
         <v>2</v>
       </c>
       <c r="R37" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S37" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="T37" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F38" s="5"/>
-      <c r="G38" s="0"/>
-    </row>
-    <row r="39" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F39" s="1" t="str">
+      <c r="F38" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <f aca="false">J77</f>
+        <v>6</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F39" s="5"/>
+      <c r="G39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="5"/>
+      <c r="G40" s="0"/>
+    </row>
+    <row r="41" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F41" s="1" t="str">
         <f aca="false">F2</f>
         <v>Deck</v>
       </c>
-      <c r="G39" s="1" t="str">
+      <c r="G41" s="1" t="str">
         <f aca="false">G2</f>
         <v>Metashare</v>
       </c>
-      <c r="H39" s="1" t="str">
+      <c r="H41" s="1" t="str">
         <f aca="false">B2</f>
         <v>Ad Nauseam</v>
       </c>
-      <c r="I39" s="1" t="str">
+      <c r="I41" s="1" t="str">
         <f aca="false">B3</f>
         <v>Cabal Ritual</v>
       </c>
-      <c r="J39" s="1" t="str">
+      <c r="J41" s="1" t="str">
         <f aca="false">B4</f>
         <v>Duress</v>
       </c>
-      <c r="K39" s="1" t="str">
+      <c r="K41" s="1" t="str">
         <f aca="false">B5</f>
         <v>Island</v>
       </c>
-      <c r="L39" s="1" t="str">
+      <c r="L41" s="1" t="str">
         <f aca="false">B6</f>
         <v>Lotus Petal</v>
       </c>
-      <c r="M39" s="1" t="str">
+      <c r="M41" s="1" t="str">
         <f aca="false">B7</f>
         <v>Dark Petition</v>
       </c>
-      <c r="N39" s="1" t="str">
+      <c r="N41" s="1" t="str">
         <f aca="false">B8</f>
         <v>Past in Flames</v>
       </c>
-      <c r="O39" s="1" t="str">
+      <c r="O41" s="1" t="str">
         <f aca="false">B9</f>
         <v>Rain of Filth</v>
       </c>
-      <c r="P39" s="1" t="str">
+      <c r="P41" s="1" t="str">
         <f aca="false">B10</f>
         <v>Thoughtseize</v>
       </c>
-      <c r="Q39" s="1" t="str">
+      <c r="Q41" s="1" t="str">
         <f aca="false">B11</f>
         <v>Preordain</v>
       </c>
-      <c r="R39" s="1" t="n">
+      <c r="R41" s="1" t="str">
         <f aca="false">B12</f>
-        <v>0</v>
-      </c>
-      <c r="S39" s="1" t="n">
+        <v>Cabal Therapy</v>
+      </c>
+      <c r="S41" s="1" t="n">
         <f aca="false">B13</f>
         <v>0</v>
       </c>
-      <c r="T39" s="1" t="n">
+      <c r="T41" s="1" t="n">
         <f aca="false">B14</f>
         <v>0</v>
       </c>
-      <c r="U39" s="1" t="n">
-        <f aca="false">B15</f>
-        <v>0</v>
-      </c>
-      <c r="V39" s="1" t="n">
+      <c r="U41" s="1" t="n">
         <f aca="false">B16</f>
         <v>0</v>
       </c>
-      <c r="W39" s="1" t="n">
+      <c r="V41" s="1" t="n">
         <f aca="false">B17</f>
         <v>0</v>
       </c>
-      <c r="X39" s="1" t="n">
+      <c r="W41" s="1" t="n">
         <f aca="false">B18</f>
         <v>0</v>
       </c>
-      <c r="Y39" s="1" t="n">
+      <c r="X41" s="1" t="n">
         <f aca="false">B19</f>
         <v>0</v>
       </c>
-      <c r="Z39" s="1" t="n">
+      <c r="Y41" s="1" t="n">
         <f aca="false">B20</f>
         <v>0</v>
       </c>
-      <c r="AA39" s="1" t="n">
-        <f aca="false">B39</f>
-        <v>0</v>
-      </c>
-      <c r="AB39" s="1" t="n">
-        <f aca="false">B40</f>
-        <v>0</v>
-      </c>
-      <c r="AC39" s="1" t="n">
+      <c r="Z41" s="1" t="n">
+        <f aca="false">B21</f>
+        <v>0</v>
+      </c>
+      <c r="AA41" s="1" t="n">
         <f aca="false">B41</f>
         <v>0</v>
       </c>
-      <c r="AD39" s="1" t="n">
+      <c r="AB41" s="1" t="n">
         <f aca="false">B42</f>
         <v>0</v>
       </c>
-      <c r="AE39" s="1" t="n">
+      <c r="AC41" s="1" t="n">
         <f aca="false">B43</f>
         <v>0</v>
       </c>
-      <c r="AF39" s="1" t="n">
+      <c r="AD41" s="1" t="n">
         <f aca="false">B44</f>
         <v>0</v>
       </c>
-      <c r="AG39" s="1" t="n">
+      <c r="AE41" s="1" t="n">
         <f aca="false">B45</f>
         <v>0</v>
       </c>
-      <c r="AH39" s="1" t="n">
+      <c r="AF41" s="1" t="n">
         <f aca="false">B46</f>
         <v>0</v>
       </c>
-      <c r="AI39" s="1" t="n">
+      <c r="AG41" s="1" t="n">
         <f aca="false">B47</f>
         <v>0</v>
       </c>
-      <c r="AJ39" s="1" t="n">
+      <c r="AH41" s="1" t="n">
         <f aca="false">B48</f>
         <v>0</v>
       </c>
-      <c r="AK39" s="1" t="n">
+      <c r="AI41" s="1" t="n">
         <f aca="false">B49</f>
         <v>0</v>
       </c>
-      <c r="AL39" s="1" t="n">
+      <c r="AJ41" s="1" t="n">
         <f aca="false">B50</f>
         <v>0</v>
       </c>
-      <c r="AM39" s="1" t="n">
+      <c r="AK41" s="1" t="n">
         <f aca="false">B51</f>
         <v>0</v>
       </c>
-      <c r="AN39" s="1" t="n">
+      <c r="AL41" s="1" t="n">
         <f aca="false">B52</f>
         <v>0</v>
       </c>
-      <c r="AO39" s="1" t="n">
+      <c r="AM41" s="1" t="n">
         <f aca="false">B53</f>
         <v>0</v>
       </c>
-      <c r="AP39" s="1" t="n">
+      <c r="AN41" s="1" t="n">
         <f aca="false">B54</f>
         <v>0</v>
       </c>
-      <c r="AQ39" s="1" t="n">
+      <c r="AO41" s="1" t="n">
         <f aca="false">B55</f>
         <v>0</v>
       </c>
-      <c r="AR39" s="1" t="n">
+      <c r="AP41" s="1" t="n">
         <f aca="false">B56</f>
         <v>0</v>
       </c>
-      <c r="AS39" s="1" t="n">
+      <c r="AQ41" s="1" t="n">
         <f aca="false">B57</f>
         <v>0</v>
       </c>
-      <c r="AT39" s="1" t="n">
+      <c r="AR41" s="1" t="n">
         <f aca="false">B58</f>
         <v>0</v>
       </c>
-      <c r="AU39" s="1" t="n">
+      <c r="AS41" s="1" t="n">
         <f aca="false">B59</f>
         <v>0</v>
       </c>
-      <c r="AV39" s="1" t="n">
+      <c r="AT41" s="1" t="n">
         <f aca="false">B60</f>
         <v>0</v>
       </c>
-      <c r="AW39" s="1" t="n">
+      <c r="AU41" s="1" t="n">
         <f aca="false">B61</f>
         <v>0</v>
       </c>
-      <c r="AX39" s="1" t="n">
+      <c r="AV41" s="1" t="n">
         <f aca="false">B62</f>
         <v>0</v>
       </c>
-      <c r="AY39" s="1" t="n">
+      <c r="AW41" s="1" t="n">
         <f aca="false">B63</f>
         <v>0</v>
       </c>
-      <c r="AZ39" s="1" t="n">
+      <c r="AX41" s="1" t="n">
         <f aca="false">B64</f>
         <v>0</v>
       </c>
-      <c r="BA39" s="1" t="n">
+      <c r="AY41" s="1" t="n">
         <f aca="false">B65</f>
         <v>0</v>
       </c>
-      <c r="BB39" s="1" t="n">
+      <c r="AZ41" s="1" t="n">
         <f aca="false">B66</f>
         <v>0</v>
       </c>
-      <c r="BC39" s="1" t="n">
+      <c r="BA41" s="1" t="n">
         <f aca="false">B67</f>
         <v>0</v>
       </c>
-      <c r="BD39" s="1" t="n">
+      <c r="BB41" s="1" t="n">
         <f aca="false">B68</f>
         <v>0</v>
       </c>
-      <c r="BE39" s="1" t="n">
+      <c r="BC41" s="1" t="n">
         <f aca="false">B69</f>
         <v>0</v>
       </c>
-      <c r="BF39" s="1" t="n">
+      <c r="BD41" s="1" t="n">
         <f aca="false">B70</f>
         <v>0</v>
       </c>
-      <c r="BG39" s="1" t="n">
+      <c r="BE41" s="1" t="n">
         <f aca="false">B71</f>
         <v>0</v>
       </c>
-      <c r="BH39" s="1" t="n">
+      <c r="BF41" s="1" t="n">
         <f aca="false">B72</f>
         <v>0</v>
       </c>
-      <c r="BI39" s="1" t="n">
+      <c r="BG41" s="1" t="n">
         <f aca="false">B73</f>
         <v>0</v>
       </c>
-      <c r="BJ39" s="1" t="n">
+      <c r="BH41" s="1" t="n">
         <f aca="false">B74</f>
         <v>0</v>
       </c>
-      <c r="BK39" s="1" t="n">
+      <c r="BI41" s="1" t="n">
         <f aca="false">B75</f>
         <v>0</v>
       </c>
-      <c r="BL39" s="1" t="n">
+      <c r="BJ41" s="1" t="n">
         <f aca="false">B76</f>
         <v>0</v>
       </c>
-      <c r="BM39" s="1" t="n">
+      <c r="BK41" s="1" t="n">
         <f aca="false">B77</f>
         <v>0</v>
       </c>
-      <c r="BN39" s="1" t="n">
+      <c r="BL41" s="1" t="n">
         <f aca="false">B78</f>
         <v>0</v>
       </c>
-      <c r="BO39" s="1" t="n">
+      <c r="BM41" s="1" t="n">
         <f aca="false">B79</f>
         <v>0</v>
       </c>
-      <c r="BP39" s="1" t="n">
+      <c r="BN41" s="1" t="n">
         <f aca="false">B80</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F40" s="1" t="str">
+      <c r="BO41" s="1" t="n">
+        <f aca="false">B81</f>
+        <v>0</v>
+      </c>
+      <c r="BP41" s="1" t="n">
+        <f aca="false">B82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F42" s="1" t="str">
         <f aca="false">F3</f>
         <v>Miracles</v>
       </c>
-      <c r="G40" s="1" t="n">
+      <c r="G42" s="1" t="n">
         <f aca="false">G3</f>
         <v>8</v>
       </c>
-      <c r="H40" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="K40" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="N40" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="O40" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P40" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q40" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F41" s="1" t="str">
+      <c r="H42" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O42" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F43" s="1" t="str">
         <f aca="false">F4</f>
         <v>Stoneblade</v>
       </c>
-      <c r="G41" s="1" t="n">
+      <c r="G43" s="1" t="n">
         <f aca="false">G4</f>
         <v>4</v>
       </c>
-      <c r="H41" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="K41" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N41" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="O41" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P41" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q41" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F42" s="1" t="str">
+      <c r="H43" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F44" s="1" t="str">
         <f aca="false">F5</f>
         <v>Eldrazi</v>
       </c>
-      <c r="G42" s="1" t="n">
+      <c r="G44" s="1" t="n">
         <f aca="false">G5</f>
         <v>6</v>
       </c>
-      <c r="H42" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I42" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J42" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K42" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L42" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O42" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="P42" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F43" s="1" t="str">
+      <c r="H44" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F45" s="1" t="str">
         <f aca="false">F6</f>
         <v>Storm</v>
       </c>
-      <c r="G43" s="1" t="n">
+      <c r="G45" s="1" t="n">
         <f aca="false">G6</f>
         <v>6</v>
       </c>
-      <c r="H43" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I43" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J43" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="K43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L43" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M43" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="N43" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="O43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P43" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q43" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F44" s="1" t="str">
+      <c r="H45" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="1" t="str">
         <f aca="false">F7</f>
         <v>Lands</v>
       </c>
-      <c r="G44" s="1" t="n">
+      <c r="G46" s="1" t="n">
         <f aca="false">G7</f>
         <v>4</v>
       </c>
-      <c r="H44" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I44" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J44" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K44" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L44" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O44" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="P44" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q44" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F45" s="1" t="str">
+      <c r="H46" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="1" t="str">
         <f aca="false">F8</f>
         <v>BUG Midrange</v>
       </c>
-      <c r="G45" s="1" t="n">
+      <c r="G47" s="1" t="n">
         <f aca="false">G8</f>
         <v>2</v>
       </c>
-      <c r="H45" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="K45" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L45" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M45" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="N45" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="O45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P45" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q45" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F46" s="1" t="str">
+      <c r="H47" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F48" s="1" t="str">
         <f aca="false">F9</f>
         <v>BUG Combo</v>
       </c>
-      <c r="G46" s="1" t="n">
+      <c r="G48" s="1" t="n">
         <f aca="false">G9</f>
         <v>1</v>
       </c>
-      <c r="H46" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="K46" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L46" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M46" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="N46" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="O46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P46" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q46" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F47" s="1" t="str">
+      <c r="H48" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F49" s="1" t="str">
         <f aca="false">F10</f>
         <v>UR (No Wasteland)</v>
       </c>
-      <c r="G47" s="1" t="n">
+      <c r="G49" s="1" t="n">
         <f aca="false">G10</f>
         <v>1</v>
       </c>
-      <c r="H47" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J47" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="K47" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L47" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M47" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="N47" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="O47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P47" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q47" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F48" s="1" t="str">
+      <c r="H49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M49" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q49" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F50" s="1" t="str">
         <f aca="false">F11</f>
         <v>Grixis Control</v>
       </c>
-      <c r="G48" s="1" t="n">
+      <c r="G50" s="1" t="n">
         <f aca="false">G11</f>
         <v>7</v>
       </c>
-      <c r="H48" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="K48" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="N48" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="O48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P48" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q48" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F49" s="1" t="str">
+      <c r="H50" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q50" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F51" s="1" t="str">
         <f aca="false">F12</f>
         <v>Burn</v>
       </c>
-      <c r="G49" s="1" t="n">
+      <c r="G51" s="1" t="n">
         <f aca="false">G12</f>
         <v>3</v>
       </c>
-      <c r="H49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L49" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M49" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="N49" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="O49" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="P49" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q49" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F50" s="1" t="str">
+      <c r="H51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P51" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q51" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F52" s="1" t="str">
         <f aca="false">F13</f>
         <v>UB Reanimator</v>
       </c>
-      <c r="G50" s="1" t="n">
+      <c r="G52" s="1" t="n">
         <f aca="false">G13</f>
         <v>1</v>
       </c>
-      <c r="H50" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I50" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J50" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="K50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L50" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M50" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="N50" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P50" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q50" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F51" s="1" t="str">
+      <c r="H52" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F53" s="1" t="str">
         <f aca="false">F14</f>
         <v>Infect</v>
       </c>
-      <c r="G51" s="1" t="n">
+      <c r="G53" s="1" t="n">
         <f aca="false">G14</f>
         <v>3</v>
       </c>
-      <c r="H51" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I51" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J51" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="K51" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L51" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M51" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P51" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q51" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F52" s="1" t="str">
+      <c r="H53" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F54" s="0" t="str">
         <f aca="false">F15</f>
-        <v>D&amp;T/Maverick</v>
-      </c>
-      <c r="G52" s="1" t="n">
+        <v>D&amp;T</v>
+      </c>
+      <c r="G54" s="0" t="n">
         <f aca="false">G15</f>
-        <v>8</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I52" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K52" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="L52" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M52" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="N52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O52" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="P52" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q52" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F53" s="1" t="str">
-        <f aca="false">F16</f>
-        <v>Aggro Loam</v>
-      </c>
-      <c r="G53" s="1" t="n">
-        <f aca="false">G16</f>
-        <v>2</v>
-      </c>
-      <c r="H53" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I53" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J53" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K53" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L53" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O53" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="P53" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q53" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F54" s="1" t="str">
-        <f aca="false">F17</f>
-        <v>Omni/SnS</v>
-      </c>
-      <c r="G54" s="1" t="n">
-        <f aca="false">G17</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>6</v>
@@ -3156,38 +3227,41 @@
         <v>6</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L54" s="0" t="n">
         <v>6</v>
       </c>
       <c r="M54" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N54" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O54" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P54" s="0" t="n">
         <v>6</v>
       </c>
       <c r="Q54" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="R54" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F55" s="1" t="str">
-        <f aca="false">F18</f>
-        <v>Elves</v>
+        <f aca="false">F16</f>
+        <v>Maverick</v>
       </c>
       <c r="G55" s="1" t="n">
-        <f aca="false">G18</f>
-        <v>2</v>
+        <f aca="false">G16</f>
+        <v>1</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>6</v>
@@ -3196,38 +3270,41 @@
         <v>6</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K55" s="0" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K55" s="5" t="n">
+        <v>6</v>
       </c>
       <c r="L55" s="0" t="n">
         <v>6</v>
       </c>
       <c r="M55" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N55" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P55" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P55" s="5" t="n">
         <v>6</v>
       </c>
       <c r="Q55" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="R55" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F56" s="1" t="str">
-        <f aca="false">F19</f>
-        <v>Manaless Dredge</v>
+        <f aca="false">F17</f>
+        <v>Aggro Loam</v>
       </c>
       <c r="G56" s="1" t="n">
-        <f aca="false">G19</f>
-        <v>1</v>
+        <f aca="false">G17</f>
+        <v>2</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>6</v>
@@ -3236,38 +3313,41 @@
         <v>6</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K56" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L56" s="0" t="n">
         <v>6</v>
       </c>
       <c r="M56" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N56" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O56" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P56" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q56" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="R56" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F57" s="1" t="str">
-        <f aca="false">F20</f>
-        <v>LED Dredge</v>
+        <f aca="false">F18</f>
+        <v>Omni/SnS</v>
       </c>
       <c r="G57" s="1" t="n">
-        <f aca="false">G20</f>
-        <v>1</v>
+        <f aca="false">G18</f>
+        <v>5</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>6</v>
@@ -3276,7 +3356,7 @@
         <v>6</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>1</v>
@@ -3288,47 +3368,50 @@
         <v>5</v>
       </c>
       <c r="N57" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O57" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P57" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q57" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="R57" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F58" s="1" t="str">
-        <f aca="false">F21</f>
-        <v>Delver (Wasteland)</v>
+        <f aca="false">F19</f>
+        <v>Elves</v>
       </c>
       <c r="G58" s="1" t="n">
-        <f aca="false">G21</f>
-        <v>8</v>
+        <f aca="false">G19</f>
+        <v>2</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I58" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K58" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L58" s="0" t="n">
         <v>6</v>
       </c>
       <c r="M58" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N58" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O58" s="0" t="n">
         <v>1</v>
@@ -3338,37 +3421,40 @@
       </c>
       <c r="Q58" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="R58" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F59" s="1" t="str">
-        <f aca="false">F22</f>
-        <v>Merfolk</v>
+        <f aca="false">F20</f>
+        <v>Manaless Dredge</v>
       </c>
       <c r="G59" s="1" t="n">
-        <f aca="false">G22</f>
+        <f aca="false">G20</f>
         <v>1</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I59" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K59" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L59" s="0" t="n">
         <v>6</v>
       </c>
       <c r="M59" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N59" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O59" s="0" t="n">
         <v>1</v>
@@ -3377,17 +3463,20 @@
         <v>6</v>
       </c>
       <c r="Q59" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="R59" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F60" s="1" t="str">
-        <f aca="false">F23</f>
-        <v>Dragon Stompy</v>
+        <f aca="false">F21</f>
+        <v>LED Dredge</v>
       </c>
       <c r="G60" s="1" t="n">
-        <f aca="false">G23</f>
-        <v>3</v>
+        <f aca="false">G21</f>
+        <v>1</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>6</v>
@@ -3396,50 +3485,53 @@
         <v>6</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K60" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L60" s="0" t="n">
         <v>6</v>
       </c>
       <c r="M60" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N60" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O60" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P60" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q60" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="R60" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F61" s="1" t="str">
-        <f aca="false">F24</f>
-        <v>BR Reanimator</v>
+        <f aca="false">F22</f>
+        <v>Delver (Wasteland)</v>
       </c>
       <c r="G61" s="1" t="n">
-        <f aca="false">G24</f>
-        <v>3</v>
+        <f aca="false">G22</f>
+        <v>8</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K61" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L61" s="0" t="n">
         <v>6</v>
@@ -3448,38 +3540,41 @@
         <v>5</v>
       </c>
       <c r="N61" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="P61" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q61" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="R61" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F62" s="1" t="str">
-        <f aca="false">F25</f>
-        <v>Turbo Depths</v>
+        <f aca="false">F23</f>
+        <v>Merfolk</v>
       </c>
       <c r="G62" s="1" t="n">
-        <f aca="false">G25</f>
-        <v>4</v>
+        <f aca="false">G23</f>
+        <v>1</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K62" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L62" s="0" t="n">
         <v>6</v>
@@ -3491,23 +3586,26 @@
         <v>1</v>
       </c>
       <c r="O62" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P62" s="0" t="n">
         <v>6</v>
       </c>
       <c r="Q62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F63" s="1" t="str">
-        <f aca="false">F26</f>
-        <v>Steel Stompy</v>
+        <f aca="false">F24</f>
+        <v>Dragon Stompy</v>
       </c>
       <c r="G63" s="1" t="n">
-        <f aca="false">G26</f>
-        <v>1</v>
+        <f aca="false">G24</f>
+        <v>3</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>6</v>
@@ -3537,17 +3635,20 @@
         <v>6</v>
       </c>
       <c r="Q63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F64" s="1" t="str">
-        <f aca="false">F27</f>
-        <v>Enchantress</v>
+        <f aca="false">F25</f>
+        <v>BR Reanimator </v>
       </c>
       <c r="G64" s="1" t="n">
-        <f aca="false">G27</f>
-        <v>1</v>
+        <f aca="false">G25</f>
+        <v>3</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>6</v>
@@ -3556,50 +3657,53 @@
         <v>6</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K64" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L64" s="0" t="n">
         <v>6</v>
       </c>
       <c r="M64" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N64" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O64" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P64" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q64" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="R64" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F65" s="1" t="str">
-        <f aca="false">F28</f>
-        <v>Goblins</v>
+        <f aca="false">F26</f>
+        <v>Turbo Depths</v>
       </c>
       <c r="G65" s="1" t="n">
-        <f aca="false">G28</f>
-        <v>2</v>
+        <f aca="false">G26</f>
+        <v>4</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>6</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J65" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K65" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L65" s="0" t="n">
         <v>6</v>
@@ -3608,25 +3712,28 @@
         <v>1</v>
       </c>
       <c r="N65" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O65" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P65" s="0" t="n">
         <v>6</v>
       </c>
       <c r="Q65" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="R65" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F66" s="1" t="str">
-        <f aca="false">F29</f>
-        <v>Pox</v>
+        <f aca="false">F27</f>
+        <v>Steel Stompy</v>
       </c>
       <c r="G66" s="1" t="n">
-        <f aca="false">G29</f>
+        <f aca="false">G27</f>
         <v>1</v>
       </c>
       <c r="H66" s="0" t="n">
@@ -3636,7 +3743,7 @@
         <v>6</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K66" s="0" t="n">
         <v>6</v>
@@ -3645,28 +3752,31 @@
         <v>6</v>
       </c>
       <c r="M66" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N66" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O66" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P66" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q66" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="R66" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F67" s="1" t="str">
-        <f aca="false">F30</f>
-        <v>Nic Fit</v>
+        <f aca="false">F28</f>
+        <v>Enchantress</v>
       </c>
       <c r="G67" s="1" t="n">
-        <f aca="false">G30</f>
+        <f aca="false">G28</f>
         <v>1</v>
       </c>
       <c r="H67" s="0" t="n">
@@ -3676,19 +3786,19 @@
         <v>6</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K67" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L67" s="0" t="n">
         <v>6</v>
       </c>
       <c r="M67" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N67" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O67" s="0" t="n">
         <v>6</v>
@@ -3698,16 +3808,19 @@
       </c>
       <c r="Q67" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="R67" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F68" s="1" t="str">
-        <f aca="false">F31</f>
-        <v>Tezzerator</v>
+        <f aca="false">F29</f>
+        <v>Goblins</v>
       </c>
       <c r="G68" s="1" t="n">
-        <f aca="false">G31</f>
-        <v>1</v>
+        <f aca="false">G29</f>
+        <v>2</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>6</v>
@@ -3716,7 +3829,7 @@
         <v>6</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K68" s="0" t="n">
         <v>6</v>
@@ -3725,28 +3838,31 @@
         <v>6</v>
       </c>
       <c r="M68" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N68" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O68" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P68" s="0" t="n">
         <v>6</v>
       </c>
       <c r="Q68" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F69" s="1" t="str">
-        <f aca="false">F32</f>
-        <v>High Tide</v>
+        <f aca="false">F30</f>
+        <v>Pox</v>
       </c>
       <c r="G69" s="1" t="n">
-        <f aca="false">G32</f>
+        <f aca="false">G30</f>
         <v>1</v>
       </c>
       <c r="H69" s="0" t="n">
@@ -3756,37 +3872,40 @@
         <v>6</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K69" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L69" s="0" t="n">
         <v>6</v>
       </c>
       <c r="M69" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N69" s="0" t="n">
         <v>6</v>
       </c>
       <c r="O69" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P69" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q69" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="R69" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F70" s="1" t="str">
-        <f aca="false">F33</f>
-        <v>Belcher</v>
+        <f aca="false">F31</f>
+        <v>Nic Fit</v>
       </c>
       <c r="G70" s="1" t="n">
-        <f aca="false">G33</f>
+        <f aca="false">G31</f>
         <v>1</v>
       </c>
       <c r="H70" s="0" t="n">
@@ -3796,10 +3915,10 @@
         <v>6</v>
       </c>
       <c r="J70" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K70" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L70" s="0" t="n">
         <v>6</v>
@@ -3808,25 +3927,28 @@
         <v>5</v>
       </c>
       <c r="N70" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O70" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P70" s="0" t="n">
         <v>6</v>
       </c>
       <c r="Q70" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F71" s="1" t="str">
-        <f aca="false">F34</f>
-        <v>Painter</v>
+        <f aca="false">F32</f>
+        <v>Tezzerator</v>
       </c>
       <c r="G71" s="1" t="n">
-        <f aca="false">G34</f>
+        <f aca="false">G32</f>
         <v>1</v>
       </c>
       <c r="H71" s="0" t="n">
@@ -3836,7 +3958,7 @@
         <v>6</v>
       </c>
       <c r="J71" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K71" s="0" t="n">
         <v>6</v>
@@ -3845,28 +3967,31 @@
         <v>6</v>
       </c>
       <c r="M71" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N71" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O71" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P71" s="0" t="n">
         <v>6</v>
       </c>
       <c r="Q71" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="R71" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F72" s="1" t="str">
-        <f aca="false">F35</f>
-        <v>C/G Post</v>
+        <f aca="false">F33</f>
+        <v>High Tide</v>
       </c>
       <c r="G72" s="1" t="n">
-        <f aca="false">G35</f>
+        <f aca="false">G33</f>
         <v>1</v>
       </c>
       <c r="H72" s="0" t="n">
@@ -3876,59 +4001,62 @@
         <v>6</v>
       </c>
       <c r="J72" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K72" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L72" s="0" t="n">
         <v>6</v>
       </c>
       <c r="M72" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N72" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O72" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P72" s="0" t="n">
         <v>6</v>
       </c>
       <c r="Q72" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="R72" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F73" s="1" t="str">
-        <f aca="false">F36</f>
-        <v>DelverBlade</v>
+        <f aca="false">F34</f>
+        <v>Belcher</v>
       </c>
       <c r="G73" s="1" t="n">
-        <f aca="false">G36</f>
-        <v>4</v>
+        <f aca="false">G34</f>
+        <v>1</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J73" s="0" t="n">
         <v>6</v>
       </c>
       <c r="K73" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L73" s="0" t="n">
         <v>6</v>
       </c>
       <c r="M73" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N73" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O73" s="0" t="n">
         <v>1</v>
@@ -3937,50 +4065,184 @@
         <v>6</v>
       </c>
       <c r="Q73" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="R73" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F74" s="1" t="str">
+        <f aca="false">F35</f>
+        <v>Painter</v>
+      </c>
+      <c r="G74" s="1" t="n">
+        <f aca="false">G35</f>
+        <v>1</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P74" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q74" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F75" s="1" t="str">
+        <f aca="false">F36</f>
+        <v>C/G Post</v>
+      </c>
+      <c r="G75" s="1" t="n">
+        <f aca="false">G36</f>
+        <v>1</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J75" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O75" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P75" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q75" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F76" s="1" t="str">
         <f aca="false">F37</f>
+        <v>DelverBlade</v>
+      </c>
+      <c r="G76" s="1" t="n">
+        <f aca="false">G37</f>
+        <v>4</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J76" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K76" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L76" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M76" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N76" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P76" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F77" s="1" t="str">
+        <f aca="false">F38</f>
         <v>Phoenix</v>
       </c>
-      <c r="G74" s="1" t="n">
-        <f aca="false">G37</f>
-        <v>1</v>
-      </c>
-      <c r="H74" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I74" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J74" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="K74" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L74" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M74" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P74" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q74" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="G77" s="1" t="n">
+        <f aca="false">G38</f>
+        <v>1</v>
+      </c>
+      <c r="H77" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L77" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M77" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P77" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q77" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="H1:V1">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -3989,8 +4251,8 @@
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="1"/>
-        <cfvo type="formula" val="(MAX($H$3:$V$20)-1)/2"/>
-        <cfvo type="formula" val="MAX($H$3:$V$20)"/>
+        <cfvo type="formula" val="(MAX($H$3:$V$21)-1)/2"/>
+        <cfvo type="formula" val="MAX($H$3:$V$21)"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -3999,10 +4261,10 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D1">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>SUM($C2:$C16)&lt;&gt;15</formula>
+      <formula>SUM($C2:$C17)&lt;&gt;15</formula>
     </cfRule>
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>SUM($C2:$C16)=15</formula>
+      <formula>SUM($C2:$C17)=15</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
